--- a/utils/config/ReferenceLists/consolidatedUnitGroups.xlsx
+++ b/utils/config/ReferenceLists/consolidatedUnitGroups.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Units" sheetId="1" r:id="rId1"/>
+    <sheet name="UnitGroups" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
